--- a/fractals_3d/data/data_9.xlsx
+++ b/fractals_3d/data/data_9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Сomputer graphics\fractals\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Сomputer graphics\fractals_3d\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -888,15 +891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,8 +933,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -964,6 +970,9 @@
       </c>
       <c r="K2">
         <v>5</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/fractals_3d/data/data_9.xlsx
+++ b/fractals_3d/data/data_9.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -57,16 +57,16 @@
     <t>white</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>"L": "R[L]L", "R": "RR"</t>
-  </si>
-  <si>
-    <t>blue</t>
+    <t>green</t>
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>BBBBBA</t>
+  </si>
+  <si>
+    <t>"A": "[++BB[--C][++C][__C][^^C]A]/////+BBB[--C][++C][__C][^^C]A", "C": "", "B": "B"</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,10 +897,13 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -934,44 +940,44 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>-70</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>

--- a/fractals_3d/data/data_9.xlsx
+++ b/fractals_3d/data/data_9.xlsx
@@ -54,12 +54,6 @@
     <t>Width</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>"A": "[++BB[--C][++C][__C][^^C]A]/////+BBB[--C][++C][__C][^^C]A", "C": "", "B": "B"</t>
+  </si>
+  <si>
+    <t>#AFEEEE</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -966,13 +966,13 @@
         <v>18</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>

--- a/fractals_3d/data/data_9.xlsx
+++ b/fractals_3d/data/data_9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
@@ -60,13 +60,19 @@
     <t>BBBBBA</t>
   </si>
   <si>
-    <t>"A": "[++BB[--C][++C][__C][^^C]A]/////+BBB[--C][++C][__C][^^C]A", "C": "", "B": "B"</t>
-  </si>
-  <si>
     <t>#AFEEEE</t>
   </si>
   <si>
     <t>black</t>
+  </si>
+  <si>
+    <t>C: ""</t>
+  </si>
+  <si>
+    <t>B: B</t>
+  </si>
+  <si>
+    <t>A: [++BB[--C][++C][__C][^^C]A]/////+BBB[--C][++C][__C][^^C]A</t>
   </si>
 </sst>
 </file>
@@ -894,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -969,16 +975,26 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/fractals_3d/data/data_9.xlsx
+++ b/fractals_3d/data/data_9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>A: [++BB[--C][++C][__C][^^C]A]/////+BBB[--C][++C][__C][^^C]A</t>
+  </si>
+  <si>
+    <t>Constants</t>
   </si>
 </sst>
 </file>
@@ -900,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +914,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +951,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -987,12 +993,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>16</v>
       </c>
